--- a/intropy/tutorials/week_2/emo_conditions.xlsx
+++ b/intropy/tutorials/week_2/emo_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/education/intropy/intropy/tutorials/week_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE310551-D0E5-8A4A-8568-60E5192FB8D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2AE706-452D-B14B-A8F1-FE5DB8BC8FC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{1473CE92-0FF8-5F4B-A4FE-38C104641E91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{1473CE92-0FF8-5F4B-A4FE-38C104641E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
   <si>
     <t>word</t>
   </si>
@@ -36,7 +36,16 @@
     <t>happy</t>
   </si>
   <si>
-    <t xml:space="preserve">angry </t>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>congruence</t>
+  </si>
+  <si>
+    <t>congruent</t>
+  </si>
+  <si>
+    <t>incongruent</t>
   </si>
 </sst>
 </file>
@@ -388,180 +397,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174D31D-6A3E-4A48-A9CF-27B85592B40B}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
